--- a/regions/6/pirdapiri uckhouri investiciebi/pirdapiri uckhouri investiciebi.xlsx
+++ b/regions/6/pirdapiri uckhouri investiciebi/pirdapiri uckhouri investiciebi.xlsx
@@ -4,16 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -84,18 +88,17 @@
     <t>პირდაპირი უცხოური ინვესტიციები იმერეთის რეგიონში</t>
   </si>
   <si>
-    <t xml:space="preserve">  2022 *</t>
+    <t xml:space="preserve">  2024 *</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0;\-#,##0.0;\-"/>
-    <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,15 +115,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
@@ -212,9 +206,9 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <color theme="1"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -251,76 +245,67 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="2"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -630,7 +615,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P27"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:F1"/>
@@ -641,517 +626,507 @@
     <col min="1" max="6" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:7" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="F3" s="17" t="s">
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="F3" s="15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="12"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
         <v>2009</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="13">
         <v>1024.1802000000002</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="13">
         <v>22920.8341</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="13">
         <v>19562.698399999997</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="13">
         <v>17550.248199999998</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="14">
         <v>61057.960899999998</v>
       </c>
-      <c r="G5" s="18"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
+      <c r="G5" s="16"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
         <v>2010</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="13">
         <v>7391.7034999999987</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="13">
         <v>41029.501299999996</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="13">
         <v>19556.061200000004</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="13">
         <v>12149.217100000002</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="14">
         <v>80126.483100000012</v>
       </c>
-      <c r="G6" s="18"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
+      <c r="G6" s="16"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
         <v>2011</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="13">
         <v>-631.22279999999921</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="13">
         <v>-2225.7582750000001</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="13">
         <v>8597.5243899999987</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="13">
         <v>-415.33167500000036</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="14">
         <v>5325.2116399999986</v>
       </c>
-      <c r="G7" s="18"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
+      <c r="G7" s="16"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
         <v>2012</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="13">
         <v>10002.4151208</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="13">
         <v>9510.5509749000012</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="13">
         <v>11266.683853400002</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="13">
         <v>9244.3993784000013</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="14">
         <v>40024.049327500004</v>
       </c>
-      <c r="G8" s="18"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
+      <c r="G8" s="16"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
         <v>2013</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="13">
         <v>13596.693400000002</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="13">
         <v>23360.407799999997</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="13">
         <v>8350.9336000000003</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="13">
         <v>13816.331300000002</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="14">
         <v>59124.366099999992</v>
       </c>
-      <c r="G9" s="18"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
+      <c r="G9" s="16"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
         <v>2014</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="13">
         <v>10916.948200000001</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="13">
         <v>14351.876500000002</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="13">
         <v>3817.1294999999977</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="13">
         <v>-1134.8645000000022</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="14">
         <v>27951.089699999997</v>
       </c>
-      <c r="G10" s="18"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
+      <c r="G10" s="16"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
         <v>2015</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="13">
         <v>3849.7621000000008</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="13">
         <v>4590.7212000000018</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="13">
         <v>-18647.1224</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="13">
         <v>35908.465399999994</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="14">
         <v>25701.826300000004</v>
       </c>
-      <c r="G11" s="18"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
+      <c r="G11" s="16"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
         <v>2016</v>
       </c>
-      <c r="B12" s="15">
-        <v>-1504.6948000000002</v>
-      </c>
-      <c r="C12" s="15">
-        <v>4998.1922000000004</v>
-      </c>
-      <c r="D12" s="15">
-        <v>13211.025700000004</v>
-      </c>
-      <c r="E12" s="15">
-        <v>9204.6756000000005</v>
-      </c>
-      <c r="F12" s="16">
-        <v>25909.198700000008</v>
-      </c>
-      <c r="G12" s="18"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="13">
+      <c r="B12" s="13">
+        <v>-1504.6947999999995</v>
+      </c>
+      <c r="C12" s="13">
+        <v>4998.1921999999995</v>
+      </c>
+      <c r="D12" s="13">
+        <v>13211.025799999999</v>
+      </c>
+      <c r="E12" s="13">
+        <v>9204.6754000000001</v>
+      </c>
+      <c r="F12" s="14">
+        <v>25909.1986</v>
+      </c>
+      <c r="G12" s="16"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
         <v>2017</v>
       </c>
-      <c r="B13" s="15">
-        <v>-7415.8870999999872</v>
-      </c>
-      <c r="C13" s="15">
-        <v>9974.6136000000006</v>
-      </c>
-      <c r="D13" s="15">
-        <v>17307.715999999997</v>
-      </c>
-      <c r="E13" s="15">
-        <v>37940.339600000007</v>
-      </c>
-      <c r="F13" s="16">
-        <v>57806.782100000019</v>
-      </c>
-      <c r="G13" s="19"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="13">
+      <c r="B13" s="13">
+        <v>-7415.8870999999936</v>
+      </c>
+      <c r="C13" s="13">
+        <v>9974.6134000000038</v>
+      </c>
+      <c r="D13" s="13">
+        <v>17307.715700000004</v>
+      </c>
+      <c r="E13" s="13">
+        <v>37940.339199999995</v>
+      </c>
+      <c r="F13" s="14">
+        <v>57806.781200000012</v>
+      </c>
+      <c r="G13" s="17"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
         <v>2018</v>
       </c>
-      <c r="B14" s="15">
-        <v>11358.941099999998</v>
-      </c>
-      <c r="C14" s="15">
-        <v>-8044.1356000000078</v>
-      </c>
-      <c r="D14" s="15">
-        <v>17064.697600000003</v>
-      </c>
-      <c r="E14" s="15">
-        <v>6631.5056000000077</v>
-      </c>
-      <c r="F14" s="16">
-        <v>27011.008700000002</v>
-      </c>
-      <c r="G14" s="19"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="13">
+      <c r="B14" s="13">
+        <v>11358.941199999997</v>
+      </c>
+      <c r="C14" s="13">
+        <v>-8044.1356000000023</v>
+      </c>
+      <c r="D14" s="13">
+        <v>15670.057799999999</v>
+      </c>
+      <c r="E14" s="13">
+        <v>6631.5051999999978</v>
+      </c>
+      <c r="F14" s="14">
+        <v>25616.368599999994</v>
+      </c>
+      <c r="G14" s="17"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
         <v>2019</v>
       </c>
-      <c r="B15" s="15">
-        <v>10433.682300000008</v>
-      </c>
-      <c r="C15" s="15">
-        <v>14538.260300000005</v>
-      </c>
-      <c r="D15" s="15">
-        <v>10501.514699999982</v>
-      </c>
-      <c r="E15" s="15">
-        <v>9968.88490000001</v>
-      </c>
-      <c r="F15" s="16">
-        <v>45442.342200000006</v>
-      </c>
-      <c r="G15" s="19"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="13">
+      <c r="B15" s="13">
+        <v>10461.066599999998</v>
+      </c>
+      <c r="C15" s="13">
+        <v>14538.260000000002</v>
+      </c>
+      <c r="D15" s="13">
+        <v>10385.611899999996</v>
+      </c>
+      <c r="E15" s="13">
+        <v>9968.8844999999965</v>
+      </c>
+      <c r="F15" s="14">
+        <v>45353.822999999989</v>
+      </c>
+      <c r="G15" s="17"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
         <v>2020</v>
       </c>
-      <c r="B16" s="15">
-        <v>-2001.5751999999977</v>
-      </c>
-      <c r="C16" s="15">
-        <v>-1884.3991999999996</v>
-      </c>
-      <c r="D16" s="15">
-        <v>-2310.386399999999</v>
-      </c>
-      <c r="E16" s="15">
-        <v>3196.4123999999983</v>
-      </c>
-      <c r="F16" s="16">
-        <v>-2999.9483999999984</v>
-      </c>
-      <c r="G16" s="19"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="13">
+      <c r="B16" s="13">
+        <v>-2001.5750999999991</v>
+      </c>
+      <c r="C16" s="13">
+        <v>-1884.3991999999976</v>
+      </c>
+      <c r="D16" s="13">
+        <v>-2310.3864999999969</v>
+      </c>
+      <c r="E16" s="13">
+        <v>3197.3294999999985</v>
+      </c>
+      <c r="F16" s="14">
+        <v>-2999.0312999999946</v>
+      </c>
+      <c r="G16" s="17"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
         <v>2021</v>
       </c>
-      <c r="B17" s="15">
-        <v>-9147.2744000000039</v>
-      </c>
-      <c r="C17" s="15">
-        <v>2615.5848999999994</v>
-      </c>
-      <c r="D17" s="15">
-        <v>13138.918500000003</v>
-      </c>
-      <c r="E17" s="15">
-        <v>-4191.4548999999997</v>
-      </c>
-      <c r="F17" s="16">
-        <v>2415.7740999999996</v>
-      </c>
-      <c r="G17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
+      <c r="B17" s="13">
+        <v>-9136.6784999999963</v>
+      </c>
+      <c r="C17" s="13">
+        <v>2615.6150000000016</v>
+      </c>
+      <c r="D17" s="13">
+        <v>13138.918399999999</v>
+      </c>
+      <c r="E17" s="13">
+        <v>-1241.5991000000013</v>
+      </c>
+      <c r="F17" s="14">
+        <v>5376.2558000000026</v>
+      </c>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>2022</v>
+      </c>
+      <c r="B18" s="13">
+        <v>-8252.1836999999996</v>
+      </c>
+      <c r="C18" s="13">
+        <v>23614.662500000006</v>
+      </c>
+      <c r="D18" s="13">
+        <v>1778.6258999999982</v>
+      </c>
+      <c r="E18" s="13">
+        <v>2859.3078999999998</v>
+      </c>
+      <c r="F18" s="14">
+        <v>20000.412600000003</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>2023</v>
+      </c>
+      <c r="B19" s="13">
+        <v>22603.895700000005</v>
+      </c>
+      <c r="C19" s="13">
+        <v>-5375.6468999999979</v>
+      </c>
+      <c r="D19" s="13">
+        <v>24594.134800000011</v>
+      </c>
+      <c r="E19" s="13">
+        <v>12050.928799999996</v>
+      </c>
+      <c r="F19" s="14">
+        <v>53873.31240000001</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="15">
-        <v>10288.884500000004</v>
-      </c>
-      <c r="C18" s="15">
-        <v>33385.136399999996</v>
-      </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="16">
-        <v>43674.020900000003</v>
-      </c>
-      <c r="G18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
+      <c r="B20" s="13">
+        <v>10612.117900000001</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="14">
+        <v>10612.117900000001</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="6"/>
       <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-    </row>
-    <row r="27" spans="1:16" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="24" t="s">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" spans="1:10" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="20"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="A29:G29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/regions/6/pirdapiri uckhouri investiciebi/pirdapiri uckhouri investiciebi.xlsx
+++ b/regions/6/pirdapiri uckhouri investiciebi/pirdapiri uckhouri investiciebi.xlsx
@@ -298,14 +298,14 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -618,7 +618,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,14 +627,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -646,19 +646,19 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="19" t="s">
         <v>5</v>
       </c>
     </row>
@@ -990,11 +990,13 @@
       <c r="B20" s="13">
         <v>10612.117900000001</v>
       </c>
-      <c r="C20" s="13"/>
+      <c r="C20" s="13">
+        <v>-1583.1714999999999</v>
+      </c>
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
       <c r="F20" s="14">
-        <v>10612.117900000001</v>
+        <v>9028.9464000000007</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -1110,15 +1112,15 @@
       <c r="J28" s="4"/>
     </row>
     <row r="29" spans="1:10" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
       <c r="H29" s="18"/>
       <c r="I29" s="18"/>
       <c r="J29" s="18"/>
